--- a/result.xlsx
+++ b/result.xlsx
@@ -556,118 +556,118 @@
     <t xml:space="preserve">calendly.com/meetkhanm</t>
   </si>
   <si>
-    <t xml:space="preserve">https://calendly.com/elinasync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/mortgagesbyrichard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/masteradvocates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/kayallison810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/sortitoutt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/jmulligancupofjoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/yetti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/mullashabina433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/drtillnoethel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/thumbsuphbm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/loui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/kelsey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/srishti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/farhanagulshan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/gitarader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/vaibhavmehndiratta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/nicolelau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/andyprosser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/talksonwheels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/petebrownnylife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/anish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/wolfandchau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/dominique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/strategyinsights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/parikshitbhanushali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/mauriciotonon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/dieudonnemiyalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/jamesgerman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/monicacolgan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/jill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/malekhassing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/vishwasmahajan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/lesley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/csholkoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/samela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/deannr58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://calendly.com/sampagan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.calendly.com/christine-steele-fsb</t>
+    <t xml:space="preserve">calendly.com/elinasync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/mortgagesbyrichard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/masteradvocates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/kayallison810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/sortitoutt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/jmulligancupofjoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/yetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/mullashabina433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/drtillnoethel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/thumbsuphbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/loui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/kelsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/srishti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/farhanagulshan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/gitarader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/vaibhavmehndiratta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/nicolelau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/andyprosser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/talksonwheels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/petebrownnylife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/anish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/wolfandchau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/dominique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/strategyinsights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/parikshitbhanushali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/mauriciotonon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/dieudonnemiyalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/jamesgerman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/monicacolgan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/jill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/malekhassing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/vishwasmahajan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/lesley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/csholkoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/samela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/deannr58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/sampagan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendly.com/christine-steele-fsb</t>
   </si>
   <si>
     <t xml:space="preserve">calendly.com/kunikabholakbh</t>
@@ -958,8 +958,8 @@
   </sheetPr>
   <dimension ref="A1:B284"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A277" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A245" activeCellId="0" sqref="A245"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A244" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A284" activeCellId="0" sqref="A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
